--- a/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_winter.xlsx
+++ b/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,511 +417,698 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>35040</v>
+        <v>31047</v>
       </c>
       <c r="B2">
-        <v>1995</v>
+        <v>1984</v>
       </c>
       <c r="C2">
-        <v>2.310325699082871</v>
+        <v>2.681929770019686</v>
       </c>
       <c r="D2">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="E2">
-        <v>2.658356052145039</v>
+        <v>2.73475129348093</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>35403</v>
+        <v>31412</v>
       </c>
       <c r="B3">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="C3">
-        <v>1.482055350913747</v>
+        <v>2.573947575822677</v>
       </c>
       <c r="D3">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="E3">
-        <v>2.992107960012036</v>
+        <v>2.58358492564803</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>35768</v>
+        <v>31777</v>
       </c>
       <c r="B4">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="C4">
-        <v>2.439884175301343</v>
+        <v>2.161034240664228</v>
       </c>
       <c r="D4">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="E4">
-        <v>2.773863658824549</v>
+        <v>2.388724974429235</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>36132</v>
+        <v>32142</v>
       </c>
       <c r="B5">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="C5">
-        <v>2.833473913903406</v>
+        <v>0.9697275934645422</v>
       </c>
       <c r="D5">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="E5">
-        <v>2.482507310682891</v>
+        <v>2.698368179641242</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>36501</v>
+        <v>32508</v>
       </c>
       <c r="B6">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="C6">
-        <v>1.221733233617339</v>
+        <v>3.194969449935003</v>
       </c>
       <c r="D6">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="E6">
-        <v>2.282946612411263</v>
+        <v>2.654510774528207</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>36858</v>
+        <v>32873</v>
       </c>
       <c r="B7">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="C7">
-        <v>3.212706544592092</v>
+        <v>3.85009945173751</v>
       </c>
       <c r="D7">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="E7">
-        <v>2.498927718860466</v>
+        <v>2.342799083309055</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>37222</v>
+        <v>33238</v>
       </c>
       <c r="B8">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="C8">
-        <v>0.8718408608820116</v>
+        <v>5.073362306219398</v>
       </c>
       <c r="D8">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="E8">
-        <v>1.451589658605279</v>
+        <v>2.977303796668029</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>37581</v>
+        <v>33603</v>
       </c>
       <c r="B9">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="C9">
-        <v>0.3027105478702108</v>
+        <v>6.091605135014255</v>
       </c>
       <c r="D9">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="E9">
-        <v>1.495147488490889</v>
+        <v>2.066726874661873</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>37938</v>
+        <v>33969</v>
       </c>
       <c r="B10">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="C10">
-        <v>-0.06338401458176879</v>
+        <v>2.064701871240571</v>
       </c>
       <c r="D10">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E10">
-        <v>1.186949455574493</v>
+        <v>2.112386427028046</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>38302</v>
+        <v>34334</v>
       </c>
       <c r="B11">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="C11">
-        <v>1.191718234579842</v>
+        <v>-1.000531514043412</v>
       </c>
       <c r="D11">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="E11">
-        <v>1.166653268907458</v>
+        <v>2.575999544954621</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>38671</v>
+        <v>34699</v>
       </c>
       <c r="B12">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="C12">
-        <v>1.10662279082161</v>
+        <v>2.998503002360153</v>
       </c>
       <c r="D12">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="E12">
-        <v>1.607604296724396</v>
+        <v>2.954478109176528</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>39035</v>
+        <v>35040</v>
       </c>
       <c r="B13">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="C13">
-        <v>2.581733062021807</v>
+        <v>2.310325699082871</v>
       </c>
       <c r="D13">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E13">
-        <v>1.863208987134324</v>
+        <v>2.658356052145039</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>39400</v>
+        <v>35403</v>
       </c>
       <c r="B14">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="C14">
-        <v>2.635105211127575</v>
+        <v>1.482055350913747</v>
       </c>
       <c r="D14">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="E14">
-        <v>1.722015618408701</v>
+        <v>2.992107960012036</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>39765</v>
+        <v>35768</v>
       </c>
       <c r="B15">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="C15">
-        <v>1.485199759936107</v>
+        <v>2.439884175301343</v>
       </c>
       <c r="D15">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E15">
-        <v>0.443605991657714</v>
+        <v>2.773863658824549</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>40130</v>
+        <v>36132</v>
       </c>
       <c r="B16">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="C16">
-        <v>-4.838386464989386</v>
+        <v>2.833473913903406</v>
       </c>
       <c r="D16">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E16">
-        <v>1.556350517939564</v>
+        <v>2.482507310682891</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>40494</v>
+        <v>36501</v>
       </c>
       <c r="B17">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="C17">
-        <v>3.522877896197807</v>
+        <v>1.221733233617339</v>
       </c>
       <c r="D17">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="E17">
-        <v>2.252953350090348</v>
+        <v>2.282946612411263</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>40862</v>
+        <v>36858</v>
       </c>
       <c r="B18">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="C18">
-        <v>3.172593145981373</v>
+        <v>3.212706544592092</v>
       </c>
       <c r="D18">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="E18">
-        <v>1.460171959067247</v>
+        <v>2.498927718860466</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>41228</v>
+        <v>37222</v>
       </c>
       <c r="B19">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="C19">
-        <v>1.075749333634834</v>
+        <v>0.8718408608820116</v>
       </c>
       <c r="D19">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="E19">
-        <v>1.106002658655192</v>
+        <v>1.451589658605279</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>41592</v>
+        <v>37581</v>
       </c>
       <c r="B20">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="C20">
-        <v>0.5135943516859198</v>
+        <v>0.3027105478702108</v>
       </c>
       <c r="D20">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="E20">
-        <v>1.304915753449687</v>
+        <v>1.495147488490889</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>41957</v>
+        <v>37938</v>
       </c>
       <c r="B21">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="C21">
-        <v>1.463603839062211</v>
+        <v>-0.06338401458176879</v>
       </c>
       <c r="D21">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="E21">
-        <v>0.7345358670387547</v>
+        <v>1.186949455574493</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>42321</v>
+        <v>38302</v>
       </c>
       <c r="B22">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="C22">
-        <v>1.460561192715071</v>
+        <v>1.191718234579842</v>
       </c>
       <c r="D22">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="E22">
-        <v>1.316306168565684</v>
+        <v>1.166653268907458</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>42689</v>
+        <v>38671</v>
       </c>
       <c r="B23">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="C23">
-        <v>1.71486702353103</v>
+        <v>1.10662279082161</v>
       </c>
       <c r="D23">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E23">
-        <v>1.271337706785514</v>
+        <v>1.607604296724396</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43053</v>
+        <v>39035</v>
       </c>
       <c r="B24">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="C24">
-        <v>2.54573700790961</v>
+        <v>2.581733062021807</v>
       </c>
       <c r="D24">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E24">
-        <v>2.15356679889549</v>
+        <v>1.863208987134324</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>39400</v>
       </c>
       <c r="B25">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="C25">
-        <v>1.467563812511452</v>
+        <v>2.635105211127575</v>
       </c>
       <c r="D25">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E25">
-        <v>0.7694605565311097</v>
+        <v>1.722015618408701</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43783</v>
+        <v>39765</v>
       </c>
       <c r="B26">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="C26">
-        <v>0.573813583266336</v>
+        <v>1.485199759936107</v>
       </c>
       <c r="D26">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="E26">
-        <v>0.7682770484317203</v>
+        <v>0.443605991657714</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>44159</v>
+        <v>40130</v>
       </c>
       <c r="B27">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C27">
-        <v>-6.332038390823524</v>
+        <v>-4.838386464989386</v>
       </c>
       <c r="D27">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="E27">
-        <v>0.4447691747926807</v>
+        <v>1.556350517939564</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>44525</v>
+        <v>40494</v>
       </c>
       <c r="B28">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C28">
-        <v>2.50078376310503</v>
+        <v>3.522877896197807</v>
       </c>
       <c r="D28">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="E28">
-        <v>2.02294041918627</v>
+        <v>2.252953350090348</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>44890</v>
+        <v>40862</v>
       </c>
       <c r="B29">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="C29">
-        <v>2.036925251458377</v>
+        <v>3.172593145981373</v>
       </c>
       <c r="D29">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="E29">
-        <v>1.390457834055581</v>
+        <v>1.460171959067247</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45254</v>
+        <v>41228</v>
       </c>
       <c r="B30">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="C30">
-        <v>0.006976824310989116</v>
+        <v>1.075749333634834</v>
       </c>
       <c r="D30">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="E30">
-        <v>1.013493932837783</v>
+        <v>1.106002658655192</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
+        <v>41592</v>
+      </c>
+      <c r="B31">
+        <v>2013</v>
+      </c>
+      <c r="C31">
+        <v>0.5135943516859198</v>
+      </c>
+      <c r="D31">
+        <v>2014</v>
+      </c>
+      <c r="E31">
+        <v>1.304915753449687</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>41957</v>
+      </c>
+      <c r="B32">
+        <v>2014</v>
+      </c>
+      <c r="C32">
+        <v>1.463603839062211</v>
+      </c>
+      <c r="D32">
+        <v>2015</v>
+      </c>
+      <c r="E32">
+        <v>0.7345358670387547</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>42321</v>
+      </c>
+      <c r="B33">
+        <v>2015</v>
+      </c>
+      <c r="C33">
+        <v>1.460561192715071</v>
+      </c>
+      <c r="D33">
+        <v>2016</v>
+      </c>
+      <c r="E33">
+        <v>1.316306168565684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>42689</v>
+      </c>
+      <c r="B34">
+        <v>2016</v>
+      </c>
+      <c r="C34">
+        <v>1.71486702353103</v>
+      </c>
+      <c r="D34">
+        <v>2017</v>
+      </c>
+      <c r="E34">
+        <v>1.271337706785514</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>43053</v>
+      </c>
+      <c r="B35">
+        <v>2017</v>
+      </c>
+      <c r="C35">
+        <v>2.54573700790961</v>
+      </c>
+      <c r="D35">
+        <v>2018</v>
+      </c>
+      <c r="E35">
+        <v>2.15356679889549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>43418</v>
+      </c>
+      <c r="B36">
+        <v>2018</v>
+      </c>
+      <c r="C36">
+        <v>1.467563812511452</v>
+      </c>
+      <c r="D36">
+        <v>2019</v>
+      </c>
+      <c r="E36">
+        <v>0.7694605565311097</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>43783</v>
+      </c>
+      <c r="B37">
+        <v>2019</v>
+      </c>
+      <c r="C37">
+        <v>0.573813583266336</v>
+      </c>
+      <c r="D37">
+        <v>2020</v>
+      </c>
+      <c r="E37">
+        <v>0.7682770484317203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>44159</v>
+      </c>
+      <c r="B38">
+        <v>2020</v>
+      </c>
+      <c r="C38">
+        <v>-6.332038390823524</v>
+      </c>
+      <c r="D38">
+        <v>2021</v>
+      </c>
+      <c r="E38">
+        <v>0.4447691747926807</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>44525</v>
+      </c>
+      <c r="B39">
+        <v>2021</v>
+      </c>
+      <c r="C39">
+        <v>2.50078376310503</v>
+      </c>
+      <c r="D39">
+        <v>2022</v>
+      </c>
+      <c r="E39">
+        <v>2.02294041918627</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>44890</v>
+      </c>
+      <c r="B40">
+        <v>2022</v>
+      </c>
+      <c r="C40">
+        <v>2.036925251458377</v>
+      </c>
+      <c r="D40">
+        <v>2023</v>
+      </c>
+      <c r="E40">
+        <v>1.390457834055581</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B41">
+        <v>2023</v>
+      </c>
+      <c r="C41">
+        <v>0.006976824310989116</v>
+      </c>
+      <c r="D41">
+        <v>2024</v>
+      </c>
+      <c r="E41">
+        <v>1.013493932837783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
         <v>45618</v>
       </c>
-      <c r="B31">
+      <c r="B42">
         <v>2024</v>
       </c>
-      <c r="C31">
+      <c r="C42">
         <v>-0.03686848375263896</v>
       </c>
-      <c r="D31">
+      <c r="D42">
         <v>2025</v>
       </c>
-      <c r="E31">
+      <c r="E42">
         <v>0.9237465935730382</v>
       </c>
     </row>

--- a/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_winter.xlsx
+++ b/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,698 +417,630 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>31047</v>
+        <v>32508</v>
       </c>
       <c r="B2">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="C2">
-        <v>2.681929770019686</v>
+        <v>3.194969449935003</v>
       </c>
       <c r="D2">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="E2">
-        <v>2.73475129348093</v>
+        <v>2.654510774528207</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>31412</v>
+        <v>32873</v>
       </c>
       <c r="B3">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="C3">
-        <v>2.573947575822677</v>
+        <v>3.85009945173751</v>
       </c>
       <c r="D3">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E3">
-        <v>2.58358492564803</v>
+        <v>2.342799083309055</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>31777</v>
+        <v>33238</v>
       </c>
       <c r="B4">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C4">
-        <v>2.161034240664228</v>
+        <v>5.073362306219398</v>
       </c>
       <c r="D4">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E4">
-        <v>2.388724974429235</v>
+        <v>2.977303796668029</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>32142</v>
+        <v>33603</v>
       </c>
       <c r="B5">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C5">
-        <v>0.9697275934645422</v>
+        <v>6.091605135014255</v>
       </c>
       <c r="D5">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E5">
-        <v>2.698368179641242</v>
+        <v>2.066726874661873</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>32508</v>
+        <v>33969</v>
       </c>
       <c r="B6">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C6">
-        <v>3.194969449935003</v>
+        <v>2.064701871240571</v>
       </c>
       <c r="D6">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E6">
-        <v>2.654510774528207</v>
+        <v>2.112386427028046</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>32873</v>
+        <v>34334</v>
       </c>
       <c r="B7">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="C7">
-        <v>3.85009945173751</v>
+        <v>-1.000531514043412</v>
       </c>
       <c r="D7">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E7">
-        <v>2.342799083309055</v>
+        <v>2.575999544954621</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>33238</v>
+        <v>34699</v>
       </c>
       <c r="B8">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C8">
-        <v>5.073362306219398</v>
+        <v>2.998503002360153</v>
       </c>
       <c r="D8">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="E8">
-        <v>2.977303796668029</v>
+        <v>2.954478109176528</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>33603</v>
+        <v>35040</v>
       </c>
       <c r="B9">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C9">
-        <v>6.091605135014255</v>
+        <v>2.310325699082871</v>
       </c>
       <c r="D9">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E9">
-        <v>2.066726874661873</v>
+        <v>2.658356052145039</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>33969</v>
+        <v>35403</v>
       </c>
       <c r="B10">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C10">
-        <v>2.064701871240571</v>
+        <v>1.482055350913747</v>
       </c>
       <c r="D10">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E10">
-        <v>2.112386427028046</v>
+        <v>2.992107960012036</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>34334</v>
+        <v>35768</v>
       </c>
       <c r="B11">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C11">
-        <v>-1.000531514043412</v>
+        <v>2.439884175301343</v>
       </c>
       <c r="D11">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E11">
-        <v>2.575999544954621</v>
+        <v>2.773863658824549</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>34699</v>
+        <v>36132</v>
       </c>
       <c r="B12">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C12">
-        <v>2.998503002360153</v>
+        <v>2.833473913903406</v>
       </c>
       <c r="D12">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E12">
-        <v>2.954478109176528</v>
+        <v>2.482507310682891</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>35040</v>
+        <v>36501</v>
       </c>
       <c r="B13">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C13">
-        <v>2.310325699082871</v>
+        <v>1.221733233617339</v>
       </c>
       <c r="D13">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E13">
-        <v>2.658356052145039</v>
+        <v>2.282946612411263</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>35403</v>
+        <v>36858</v>
       </c>
       <c r="B14">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C14">
-        <v>1.482055350913747</v>
+        <v>3.212706544592092</v>
       </c>
       <c r="D14">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E14">
-        <v>2.992107960012036</v>
+        <v>2.498927718860466</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>35768</v>
+        <v>37222</v>
       </c>
       <c r="B15">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C15">
-        <v>2.439884175301343</v>
+        <v>0.8718408608820116</v>
       </c>
       <c r="D15">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E15">
-        <v>2.773863658824549</v>
+        <v>1.451589658605279</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>36132</v>
+        <v>37581</v>
       </c>
       <c r="B16">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C16">
-        <v>2.833473913903406</v>
+        <v>0.3027105478702108</v>
       </c>
       <c r="D16">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E16">
-        <v>2.482507310682891</v>
+        <v>1.495147488490889</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>36501</v>
+        <v>37938</v>
       </c>
       <c r="B17">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C17">
-        <v>1.221733233617339</v>
+        <v>-0.06338401458176879</v>
       </c>
       <c r="D17">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E17">
-        <v>2.282946612411263</v>
+        <v>1.186949455574493</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>36858</v>
+        <v>38302</v>
       </c>
       <c r="B18">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C18">
-        <v>3.212706544592092</v>
+        <v>1.191718234579842</v>
       </c>
       <c r="D18">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E18">
-        <v>2.498927718860466</v>
+        <v>1.166653268907458</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>37222</v>
+        <v>38671</v>
       </c>
       <c r="B19">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C19">
-        <v>0.8718408608820116</v>
+        <v>1.10662279082161</v>
       </c>
       <c r="D19">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E19">
-        <v>1.451589658605279</v>
+        <v>1.607604296724396</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>37581</v>
+        <v>39035</v>
       </c>
       <c r="B20">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="C20">
-        <v>0.3027105478702108</v>
+        <v>2.581733062021807</v>
       </c>
       <c r="D20">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E20">
-        <v>1.495147488490889</v>
+        <v>1.863208987134324</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>37938</v>
+        <v>39400</v>
       </c>
       <c r="B21">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C21">
-        <v>-0.06338401458176879</v>
+        <v>2.635105211127575</v>
       </c>
       <c r="D21">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E21">
-        <v>1.186949455574493</v>
+        <v>1.722015618408701</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>38302</v>
+        <v>39765</v>
       </c>
       <c r="B22">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C22">
-        <v>1.191718234579842</v>
+        <v>1.485199759936107</v>
       </c>
       <c r="D22">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E22">
-        <v>1.166653268907458</v>
+        <v>0.443605991657714</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>38671</v>
+        <v>40130</v>
       </c>
       <c r="B23">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C23">
-        <v>1.10662279082161</v>
+        <v>-4.838386464989386</v>
       </c>
       <c r="D23">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E23">
-        <v>1.607604296724396</v>
+        <v>1.556350517939564</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>39035</v>
+        <v>40494</v>
       </c>
       <c r="B24">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C24">
-        <v>2.581733062021807</v>
+        <v>3.522877896197807</v>
       </c>
       <c r="D24">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E24">
-        <v>1.863208987134324</v>
+        <v>2.252953350090348</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>39400</v>
+        <v>40862</v>
       </c>
       <c r="B25">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C25">
-        <v>2.635105211127575</v>
+        <v>3.172593145981373</v>
       </c>
       <c r="D25">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E25">
-        <v>1.722015618408701</v>
+        <v>1.460171959067247</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>39765</v>
+        <v>41228</v>
       </c>
       <c r="B26">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C26">
-        <v>1.485199759936107</v>
+        <v>1.075749333634834</v>
       </c>
       <c r="D26">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E26">
-        <v>0.443605991657714</v>
+        <v>1.106002658655192</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>40130</v>
+        <v>41592</v>
       </c>
       <c r="B27">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C27">
-        <v>-4.838386464989386</v>
+        <v>0.5135943516859198</v>
       </c>
       <c r="D27">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E27">
-        <v>1.556350517939564</v>
+        <v>1.304915753449687</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>40494</v>
+        <v>41957</v>
       </c>
       <c r="B28">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C28">
-        <v>3.522877896197807</v>
+        <v>1.463603839062211</v>
       </c>
       <c r="D28">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E28">
-        <v>2.252953350090348</v>
+        <v>0.7345358670387547</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>40862</v>
+        <v>42321</v>
       </c>
       <c r="B29">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C29">
-        <v>3.172593145981373</v>
+        <v>1.460561192715071</v>
       </c>
       <c r="D29">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E29">
-        <v>1.460171959067247</v>
+        <v>1.316306168565684</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>41228</v>
+        <v>42689</v>
       </c>
       <c r="B30">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C30">
-        <v>1.075749333634834</v>
+        <v>1.71486702353103</v>
       </c>
       <c r="D30">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E30">
-        <v>1.106002658655192</v>
+        <v>1.271337706785514</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>41592</v>
+        <v>43053</v>
       </c>
       <c r="B31">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C31">
-        <v>0.5135943516859198</v>
+        <v>2.54573700790961</v>
       </c>
       <c r="D31">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E31">
-        <v>1.304915753449687</v>
+        <v>2.15356679889549</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>41957</v>
+        <v>43418</v>
       </c>
       <c r="B32">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C32">
-        <v>1.463603839062211</v>
+        <v>1.467563812511452</v>
       </c>
       <c r="D32">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E32">
-        <v>0.7345358670387547</v>
+        <v>0.7694605565311097</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>42321</v>
+        <v>43783</v>
       </c>
       <c r="B33">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C33">
-        <v>1.460561192715071</v>
+        <v>0.573813583266336</v>
       </c>
       <c r="D33">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E33">
-        <v>1.316306168565684</v>
+        <v>0.7682770484317203</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>42689</v>
+        <v>44159</v>
       </c>
       <c r="B34">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C34">
-        <v>1.71486702353103</v>
+        <v>-6.332038390823524</v>
       </c>
       <c r="D34">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E34">
-        <v>1.271337706785514</v>
+        <v>0.4447691747926807</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>43053</v>
+        <v>44525</v>
       </c>
       <c r="B35">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.54573700790961</v>
+        <v>2.50078376310503</v>
       </c>
       <c r="D35">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E35">
-        <v>2.15356679889549</v>
+        <v>2.02294041918627</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>43418</v>
+        <v>44890</v>
       </c>
       <c r="B36">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C36">
-        <v>1.467563812511452</v>
+        <v>2.036925251458377</v>
       </c>
       <c r="D36">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E36">
-        <v>0.7694605565311097</v>
+        <v>1.390457834055581</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>43783</v>
+        <v>45254</v>
       </c>
       <c r="B37">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C37">
-        <v>0.573813583266336</v>
+        <v>0.006976824310989116</v>
       </c>
       <c r="D37">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E37">
-        <v>0.7682770484317203</v>
+        <v>1.013493932837783</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44159</v>
+        <v>45618</v>
       </c>
       <c r="B38">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C38">
-        <v>-6.332038390823524</v>
+        <v>-0.03686848375263896</v>
       </c>
       <c r="D38">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E38">
-        <v>0.4447691747926807</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2">
-        <v>44525</v>
-      </c>
-      <c r="B39">
-        <v>2021</v>
-      </c>
-      <c r="C39">
-        <v>2.50078376310503</v>
-      </c>
-      <c r="D39">
-        <v>2022</v>
-      </c>
-      <c r="E39">
-        <v>2.02294041918627</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2">
-        <v>44890</v>
-      </c>
-      <c r="B40">
-        <v>2022</v>
-      </c>
-      <c r="C40">
-        <v>2.036925251458377</v>
-      </c>
-      <c r="D40">
-        <v>2023</v>
-      </c>
-      <c r="E40">
-        <v>1.390457834055581</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2">
-        <v>45254</v>
-      </c>
-      <c r="B41">
-        <v>2023</v>
-      </c>
-      <c r="C41">
-        <v>0.006976824310989116</v>
-      </c>
-      <c r="D41">
-        <v>2024</v>
-      </c>
-      <c r="E41">
-        <v>1.013493932837783</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2">
-        <v>45618</v>
-      </c>
-      <c r="B42">
-        <v>2024</v>
-      </c>
-      <c r="C42">
-        <v>-0.03686848375263896</v>
-      </c>
-      <c r="D42">
-        <v>2025</v>
-      </c>
-      <c r="E42">
         <v>0.9237465935730382</v>
       </c>
     </row>

--- a/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_winter.xlsx
+++ b/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1044,6 +1044,23 @@
         <v>0.9237465935730382</v>
       </c>
     </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B39">
+        <v>2025</v>
+      </c>
+      <c r="C39">
+        <v>0.3398512689293476</v>
+      </c>
+      <c r="D39">
+        <v>2026</v>
+      </c>
+      <c r="E39">
+        <v>0.8571438361188566</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_winter.xlsx
+++ b/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_winter.xlsx
@@ -423,13 +423,13 @@
         <v>1988</v>
       </c>
       <c r="C2">
-        <v>3.194969449935003</v>
+        <v>3.123541145015474</v>
       </c>
       <c r="D2">
         <v>1989</v>
       </c>
       <c r="E2">
-        <v>2.654510774528207</v>
+        <v>2.651224325850143</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +440,13 @@
         <v>1989</v>
       </c>
       <c r="C3">
-        <v>3.85009945173751</v>
+        <v>3.959010658874851</v>
       </c>
       <c r="D3">
         <v>1990</v>
       </c>
       <c r="E3">
-        <v>2.342799083309055</v>
+        <v>2.48038747547068</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +457,13 @@
         <v>1990</v>
       </c>
       <c r="C4">
-        <v>5.073362306219398</v>
+        <v>4.722695063536686</v>
       </c>
       <c r="D4">
         <v>1991</v>
       </c>
       <c r="E4">
-        <v>2.977303796668029</v>
+        <v>3.580489688170352</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +474,13 @@
         <v>1991</v>
       </c>
       <c r="C5">
-        <v>6.091605135014255</v>
+        <v>6.739021039846627</v>
       </c>
       <c r="D5">
         <v>1992</v>
       </c>
       <c r="E5">
-        <v>2.066726874661873</v>
+        <v>2.457570659067509</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +491,13 @@
         <v>1992</v>
       </c>
       <c r="C6">
-        <v>2.064701871240571</v>
+        <v>2.619839412265601</v>
       </c>
       <c r="D6">
         <v>1993</v>
       </c>
       <c r="E6">
-        <v>2.112386427028046</v>
+        <v>1.929582042845213</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,13 +508,13 @@
         <v>1993</v>
       </c>
       <c r="C7">
-        <v>-1.000531514043412</v>
+        <v>-0.7919564768266385</v>
       </c>
       <c r="D7">
         <v>1994</v>
       </c>
       <c r="E7">
-        <v>2.575999544954621</v>
+        <v>1.978648203842193</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,13 +525,13 @@
         <v>1994</v>
       </c>
       <c r="C8">
-        <v>2.998503002360153</v>
+        <v>1.877689851450803</v>
       </c>
       <c r="D8">
         <v>1995</v>
       </c>
       <c r="E8">
-        <v>2.954478109176528</v>
+        <v>3.188468414048606</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,13 +542,13 @@
         <v>1995</v>
       </c>
       <c r="C9">
-        <v>2.310325699082871</v>
+        <v>2.705004599189187</v>
       </c>
       <c r="D9">
         <v>1996</v>
       </c>
       <c r="E9">
-        <v>2.658356052145039</v>
+        <v>2.471779821159181</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,13 +559,13 @@
         <v>1996</v>
       </c>
       <c r="C10">
-        <v>1.482055350913747</v>
+        <v>1.110374544249249</v>
       </c>
       <c r="D10">
         <v>1997</v>
       </c>
       <c r="E10">
-        <v>2.992107960012036</v>
+        <v>2.958768964947134</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,13 +576,13 @@
         <v>1997</v>
       </c>
       <c r="C11">
-        <v>2.439884175301343</v>
+        <v>2.267566233338814</v>
       </c>
       <c r="D11">
         <v>1998</v>
       </c>
       <c r="E11">
-        <v>2.773863658824549</v>
+        <v>2.824054578526636</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,13 +593,13 @@
         <v>1998</v>
       </c>
       <c r="C12">
-        <v>2.833473913903406</v>
+        <v>2.688433258834588</v>
       </c>
       <c r="D12">
         <v>1999</v>
       </c>
       <c r="E12">
-        <v>2.482507310682891</v>
+        <v>2.558605038029849</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,13 +610,13 @@
         <v>1999</v>
       </c>
       <c r="C13">
-        <v>1.221733233617339</v>
+        <v>1.014079695989589</v>
       </c>
       <c r="D13">
         <v>2000</v>
       </c>
       <c r="E13">
-        <v>2.282946612411263</v>
+        <v>2.1961756525541</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +627,13 @@
         <v>2000</v>
       </c>
       <c r="C14">
-        <v>3.212706544592092</v>
+        <v>3.013853578092252</v>
       </c>
       <c r="D14">
         <v>2001</v>
       </c>
       <c r="E14">
-        <v>2.498927718860466</v>
+        <v>2.721358666668894</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,13 +644,13 @@
         <v>2001</v>
       </c>
       <c r="C15">
-        <v>0.8718408608820116</v>
+        <v>1.331295149770684</v>
       </c>
       <c r="D15">
         <v>2002</v>
       </c>
       <c r="E15">
-        <v>1.451589658605279</v>
+        <v>1.104792173470215</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2002</v>
       </c>
       <c r="C16">
-        <v>0.3027105478702108</v>
+        <v>0.04589006555719699</v>
       </c>
       <c r="D16">
         <v>2003</v>
       </c>
       <c r="E16">
-        <v>1.495147488490889</v>
+        <v>1.367746832546346</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2003</v>
       </c>
       <c r="C17">
-        <v>-0.06338401458176879</v>
+        <v>0.009546395482029624</v>
       </c>
       <c r="D17">
         <v>2004</v>
       </c>
       <c r="E17">
-        <v>1.186949455574493</v>
+        <v>0.9083591402091473</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2004</v>
       </c>
       <c r="C18">
-        <v>1.191718234579842</v>
+        <v>0.8709390141433015</v>
       </c>
       <c r="D18">
         <v>2005</v>
       </c>
       <c r="E18">
-        <v>1.166653268907458</v>
+        <v>1.177606443599988</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2005</v>
       </c>
       <c r="C19">
-        <v>1.10662279082161</v>
+        <v>0.7652063367885598</v>
       </c>
       <c r="D19">
         <v>2006</v>
       </c>
       <c r="E19">
-        <v>1.607604296724396</v>
+        <v>1.680477107215861</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -729,13 +729,13 @@
         <v>2006</v>
       </c>
       <c r="C20">
-        <v>2.581733062021807</v>
+        <v>2.267579219134386</v>
       </c>
       <c r="D20">
         <v>2007</v>
       </c>
       <c r="E20">
-        <v>1.863208987134324</v>
+        <v>2.225111592343887</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -746,13 +746,13 @@
         <v>2007</v>
       </c>
       <c r="C21">
-        <v>2.635105211127575</v>
+        <v>3.146753122914103</v>
       </c>
       <c r="D21">
         <v>2008</v>
       </c>
       <c r="E21">
-        <v>1.722015618408701</v>
+        <v>1.799793194919874</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -763,13 +763,13 @@
         <v>2008</v>
       </c>
       <c r="C22">
-        <v>1.485199759936107</v>
+        <v>1.769033835366818</v>
       </c>
       <c r="D22">
         <v>2009</v>
       </c>
       <c r="E22">
-        <v>0.443605991657714</v>
+        <v>0.2856860139923256</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -780,13 +780,13 @@
         <v>2009</v>
       </c>
       <c r="C23">
-        <v>-4.838386464989386</v>
+        <v>-4.774715709990263</v>
       </c>
       <c r="D23">
         <v>2010</v>
       </c>
       <c r="E23">
-        <v>1.556350517939564</v>
+        <v>0.754926127539246</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -797,13 +797,13 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>3.522877896197807</v>
+        <v>1.95493704440024</v>
       </c>
       <c r="D24">
         <v>2011</v>
       </c>
       <c r="E24">
-        <v>2.252953350090348</v>
+        <v>2.928378677701393</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -814,13 +814,13 @@
         <v>2011</v>
       </c>
       <c r="C25">
-        <v>3.172593145981373</v>
+        <v>3.478075069442799</v>
       </c>
       <c r="D25">
         <v>2012</v>
       </c>
       <c r="E25">
-        <v>1.460171959067247</v>
+        <v>1.768431385360159</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -831,13 +831,13 @@
         <v>2012</v>
       </c>
       <c r="C26">
-        <v>1.075749333634834</v>
+        <v>1.232342134690434</v>
       </c>
       <c r="D26">
         <v>2013</v>
       </c>
       <c r="E26">
-        <v>1.106002658655192</v>
+        <v>1.134779475590464</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -848,13 +848,13 @@
         <v>2013</v>
       </c>
       <c r="C27">
-        <v>0.5135943516859198</v>
+        <v>0.2542811494408159</v>
       </c>
       <c r="D27">
         <v>2014</v>
       </c>
       <c r="E27">
-        <v>1.304915753449687</v>
+        <v>1.353526127153426</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -865,13 +865,13 @@
         <v>2014</v>
       </c>
       <c r="C28">
-        <v>1.463603839062211</v>
+        <v>1.519778766382096</v>
       </c>
       <c r="D28">
         <v>2015</v>
       </c>
       <c r="E28">
-        <v>0.7345358670387547</v>
+        <v>0.7212678493511149</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -882,13 +882,13 @@
         <v>2015</v>
       </c>
       <c r="C29">
-        <v>1.460561192715071</v>
+        <v>1.469441753880329</v>
       </c>
       <c r="D29">
         <v>2016</v>
       </c>
       <c r="E29">
-        <v>1.316306168565684</v>
+        <v>1.350400980499855</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -899,13 +899,13 @@
         <v>2016</v>
       </c>
       <c r="C30">
-        <v>1.71486702353103</v>
+        <v>1.638203081492495</v>
       </c>
       <c r="D30">
         <v>2017</v>
       </c>
       <c r="E30">
-        <v>1.271337706785514</v>
+        <v>1.323745783269614</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -916,13 +916,13 @@
         <v>2017</v>
       </c>
       <c r="C31">
-        <v>2.54573700790961</v>
+        <v>2.268697431234346</v>
       </c>
       <c r="D31">
         <v>2018</v>
       </c>
       <c r="E31">
-        <v>2.15356679889549</v>
+        <v>2.455413743911294</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -933,13 +933,13 @@
         <v>2018</v>
       </c>
       <c r="C32">
-        <v>1.467563812511452</v>
+        <v>1.984425467899631</v>
       </c>
       <c r="D32">
         <v>2019</v>
       </c>
       <c r="E32">
-        <v>0.7694605565311097</v>
+        <v>0.6687400825358569</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,13 +950,13 @@
         <v>2019</v>
       </c>
       <c r="C33">
-        <v>0.573813583266336</v>
+        <v>0.6066448776129052</v>
       </c>
       <c r="D33">
         <v>2020</v>
       </c>
       <c r="E33">
-        <v>0.7682770484317203</v>
+        <v>0.6230021429014077</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -967,13 +967,13 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-6.332038390823524</v>
+        <v>-4.243076347305386</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>0.4447691747926807</v>
+        <v>-2.163103471150829</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.50078376310503</v>
+        <v>1.438499295329754</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>2.02294041918627</v>
+        <v>1.882119284761474</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2022</v>
       </c>
       <c r="C36">
-        <v>2.036925251458377</v>
+        <v>1.906593537051537</v>
       </c>
       <c r="D36">
         <v>2023</v>
       </c>
       <c r="E36">
-        <v>1.390457834055581</v>
+        <v>1.473394465200051</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2023</v>
       </c>
       <c r="C37">
-        <v>0.006976824310989116</v>
+        <v>0.08348019664223827</v>
       </c>
       <c r="D37">
         <v>2024</v>
       </c>
       <c r="E37">
-        <v>1.013493932837783</v>
+        <v>0.8702074629614476</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1035,13 +1035,13 @@
         <v>2024</v>
       </c>
       <c r="C38">
-        <v>-0.03686848375263896</v>
+        <v>-0.214505326882275</v>
       </c>
       <c r="D38">
         <v>2025</v>
       </c>
       <c r="E38">
-        <v>0.9237465935730382</v>
+        <v>0.8092352694139215</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2025</v>
       </c>
       <c r="C39">
-        <v>0.3398512689293476</v>
+        <v>0.1651547428133782</v>
       </c>
       <c r="D39">
         <v>2026</v>
       </c>
       <c r="E39">
-        <v>0.8571438361188566</v>
+        <v>0.7536567386490001</v>
       </c>
     </row>
   </sheetData>
